--- a/biology/Zoologie/Hottentotta_hottentotta/Hottentotta_hottentotta.xlsx
+++ b/biology/Zoologie/Hottentotta_hottentotta/Hottentotta_hottentotta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta hottentotta est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, au Gambie, en Guinée-Bissau, en Guinée, en Sierra Leone, au Mali, au Burkina Faso, en Côte d'Ivoire, au Togo, au Bénin, au Niger, au Nigeria, au Cameroun, au Congo-Brazzaville, en Centrafrique et au Tchad[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, au Gambie, en Guinée-Bissau, en Guinée, en Sierra Leone, au Mali, au Burkina Faso, en Côte d'Ivoire, au Togo, au Bénin, au Niger, au Nigeria, au Cameroun, au Congo-Brazzaville, en Centrafrique et au Tchad,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hottentotta hottentotta mesure de 55 à 80 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hottentotta hottentotta mesure de 55 à 80 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio hottentotta par Fabricius en 1787. Elle est placée dans le genre Buthus par Pavesi en 1881[3], dans le genre Buthotus par Vachon en 1949[4] puis dans le genre Hottentotta par Francke en 1985[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio hottentotta par Fabricius en 1787. Elle est placée dans le genre Buthus par Pavesi en 1881, dans le genre Buthotus par Vachon en 1949 puis dans le genre Hottentotta par Francke en 1985.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fabricius, 1787 : Mantissa insectorum sistens eorum species nuper detectas adiectis characteribus genericis, differentiis, specificis, emendationibus, observationibus. Tom. I. Hafniae: Impensis Christ. Gottl. Proft., p. 1–348.</t>
         </is>
